--- a/medicine/Handicap/Volare_(film)/Volare_(film).xlsx
+++ b/medicine/Handicap/Volare_(film)/Volare_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Volare (Tutto il mio folle amore) est un film italien réalisé par Gabriele Salvatores, sorti en 2019. Le film a été présenté à la Mostra de Venise 2019, hors compétition[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Volare (Tutto il mio folle amore) est un film italien réalisé par Gabriele Salvatores, sorti en 2019. Le film a été présenté à la Mostra de Venise 2019, hors compétition.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent, seize ans, est un adolescent adopté et autiste. Un soir, son père biologique, arrive dans la maison familiale, complètement saoul.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Volare
 Titre original : Tutto il mio folle amore
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Claudio Santamaria : Willy
 Valeria Golino : Elisa
@@ -626,12 +644,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompense
-2020 : Meilleure actrice pour Valeria Golino à La Pellicola d'Oro[2]
-Nominations
-2020 : Meilleure actrice pour Valeria Golino aux David di Donatello[3]
-2020 : Meilleur réalisateur pour Gabriele Salvatores, meilleur son en prise directe, meilleure bande-son pour Mauro Pagani, meilleure photographie pour Italo Petriccione et meilleur scénario pour Umberto Contarello et Sara Mosetti aux Rubans d'argent[4]
-2020 : Meilleur réalisateur pour Gabriele Salvatores au Ciak d'oro[5]</t>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2020 : Meilleure actrice pour Valeria Golino à La Pellicola d'Oro</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Volare_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Volare_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2020 : Meilleure actrice pour Valeria Golino aux David di Donatello
+2020 : Meilleur réalisateur pour Gabriele Salvatores, meilleur son en prise directe, meilleure bande-son pour Mauro Pagani, meilleure photographie pour Italo Petriccione et meilleur scénario pour Umberto Contarello et Sara Mosetti aux Rubans d'argent
+2020 : Meilleur réalisateur pour Gabriele Salvatores au Ciak d'oro</t>
         </is>
       </c>
     </row>
